--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C959D86A-28BA-4910-A304-C92A26126D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +13,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$74</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="122">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,12 +485,32 @@
   </si>
   <si>
     <t>TIM 去广告优化版</t>
+  </si>
+  <si>
+    <t>跑分软件 安兔兔评测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://soft.antutu.com/indexpc.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯子工具 ClashN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dotnet.microsoft.com/zh-cn/download/dotnet/6.0/runtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET 6.0 Runtime (For ClashN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,21 +639,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -641,24 +657,14 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -709,7 +715,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -784,6 +790,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -819,6 +842,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -994,24 +1034,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1030,7 +1070,7 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1038,1347 +1078,1403 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="19" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="20" t="s">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="21" t="s">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24" t="s">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="15" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23" t="s">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24" t="s">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="15" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="15" t="s">
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24" t="s">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="16" t="s">
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="16" t="s">
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="16" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="15" t="s">
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="15" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="19" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="B32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="15" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="17" t="s">
+      <c r="B36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="15" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="15" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="15" t="s">
+      <c r="B40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="21" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="15" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="10" t="s">
+      <c r="B46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="10" t="s">
+      <c r="B47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="15" t="s">
+      <c r="B49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="B51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="18" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="16" t="s">
+      <c r="B54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
+      <c r="B55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="15" t="s">
+      <c r="B56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="8" t="s">
+      <c r="B57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
+      <c r="B58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
+      <c r="B59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="B60" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="15"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
+      <c r="B61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="15" t="s">
+      <c r="B62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="8" t="s">
+      <c r="B63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+      <c r="B64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="8" t="s">
+      <c r="B65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
+      <c r="B66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="B67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="C67" s="6"/>
       <c r="D67" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="8" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="B71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="15" t="s">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="17" t="s">
+      <c r="B73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="10" t="s">
+      <c r="B74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H71" s="11"/>
+      <c r="H74" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H71">
-    <sortState ref="A2:H71">
-      <sortCondition ref="A1:A71"/>
+  <autoFilter ref="A1:H74" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
+      <sortCondition ref="A1:A74"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A56:A59 A62:A1048576 A1:A54">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="浏览器">
+  <conditionalFormatting sqref="A58:A61 A64:A1048576 A1:A56">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A60)))</formula>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A61)))</formula>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A55)))</formula>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2"/>
-    <hyperlink ref="H9" r:id="rId3" location="product-desktop-release"/>
-    <hyperlink ref="H11" r:id="rId4"/>
-    <hyperlink ref="H14" r:id="rId5" location="java11-windows"/>
-    <hyperlink ref="H25" r:id="rId6"/>
-    <hyperlink ref="H37" r:id="rId7"/>
-    <hyperlink ref="H35" r:id="rId8"/>
-    <hyperlink ref="H38" r:id="rId9"/>
-    <hyperlink ref="H41" r:id="rId10"/>
-    <hyperlink ref="H43" r:id="rId11"/>
-    <hyperlink ref="H69" r:id="rId12"/>
-    <hyperlink ref="H50" r:id="rId13" location="/download"/>
-    <hyperlink ref="H70" r:id="rId14"/>
-    <hyperlink ref="H51" r:id="rId15"/>
-    <hyperlink ref="H67" r:id="rId16"/>
-    <hyperlink ref="H28" r:id="rId17"/>
-    <hyperlink ref="H12" r:id="rId18"/>
-    <hyperlink ref="H36" r:id="rId19"/>
-    <hyperlink ref="H32" r:id="rId20"/>
-    <hyperlink ref="H64" r:id="rId21"/>
-    <hyperlink ref="H20" r:id="rId22"/>
-    <hyperlink ref="H59" r:id="rId23"/>
-    <hyperlink ref="H53" r:id="rId24"/>
-    <hyperlink ref="H47" r:id="rId25"/>
-    <hyperlink ref="H22" r:id="rId26"/>
-    <hyperlink ref="H16" r:id="rId27"/>
-    <hyperlink ref="H17" r:id="rId28"/>
-    <hyperlink ref="H19" r:id="rId29"/>
-    <hyperlink ref="H21" r:id="rId30"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H10" r:id="rId3" location="product-desktop-release" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H15" r:id="rId5" location="java11-windows" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H39" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H45" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H72" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H53" r:id="rId13" location="/download" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H73" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H70" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H37" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H56" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H23" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H18" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H22" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H38" r:id="rId31" xr:uid="{6469D6A3-1749-4940-92F3-FF822E959687}"/>
+    <hyperlink ref="H2" r:id="rId32" xr:uid="{A782AB9A-CE44-48A7-924B-9D2B0577940B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2386,12 +2482,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C959D86A-28BA-4910-A304-C92A26126D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$72</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="119">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚拟机 VirtualBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.vmware.com/go/getworkstation-win</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,10 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梯子工具 Clash for Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文本比较工具 Beyond Compare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,10 +417,6 @@
   </si>
   <si>
     <t>https://notepad-plus-plus.org/downloads/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Fndroid/clash_for_windows_pkg/releases</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,7 +497,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,7 +702,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -790,23 +777,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -842,23 +812,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1034,29 +987,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>42</v>
@@ -1071,16 +1024,16 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -1093,10 +1046,10 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1114,7 +1067,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1132,7 +1085,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
@@ -1147,12 +1100,12 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -1168,7 +1121,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1139,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1206,9 +1159,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -1224,7 +1177,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1197,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1262,7 +1215,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -1300,7 +1253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1320,9 +1273,9 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -1335,12 +1288,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -1354,9 +1307,9 @@
       <c r="G16" s="6"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
@@ -1369,12 +1322,12 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>3</v>
@@ -1387,10 +1340,10 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1410,9 +1363,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -1425,12 +1378,12 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -1445,12 +1398,12 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1463,10 +1416,10 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1481,10 +1434,10 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1500,7 +1453,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
@@ -1518,7 +1471,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -1536,7 +1489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
@@ -1554,7 +1507,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1572,7 +1525,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
@@ -1590,7 +1543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1563,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>70</v>
       </c>
@@ -1626,7 +1579,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
@@ -1642,9 +1595,9 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
@@ -1660,7 +1613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
@@ -1676,9 +1629,9 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
@@ -1689,12 +1642,12 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
@@ -1714,9 +1667,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>68</v>
@@ -1729,12 +1682,12 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>3</v>
@@ -1747,10 +1700,10 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -1768,7 +1721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -1806,7 +1759,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1822,7 +1775,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -1840,9 +1793,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>62</v>
@@ -1856,9 +1809,9 @@
       <c r="G44" s="5"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
@@ -1874,7 +1827,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>26</v>
       </c>
@@ -1894,7 +1847,7 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>27</v>
       </c>
@@ -1914,7 +1867,7 @@
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>24</v>
       </c>
@@ -1928,137 +1881,137 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G49" s="6"/>
-      <c r="H49" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G50" s="6"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="13" t="s">
+      <c r="B52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="11" t="s">
+      <c r="B53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>3</v>
@@ -2066,19 +2019,17 @@
       <c r="C56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>3</v>
@@ -2092,9 +2043,9 @@
         <v>3</v>
       </c>
       <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
         <v>93</v>
       </c>
@@ -2112,9 +2063,9 @@
       <c r="G58" s="6"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>3</v>
@@ -2130,7 +2081,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
         <v>89</v>
       </c>
@@ -2148,9 +2099,9 @@
       <c r="G60" s="6"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>3</v>
@@ -2158,17 +2109,19 @@
       <c r="C61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>3</v>
@@ -2176,19 +2129,17 @@
       <c r="C62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G62" s="6"/>
-      <c r="H62" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>3</v>
@@ -2202,11 +2153,11 @@
         <v>3</v>
       </c>
       <c r="G63" s="6"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>3</v>
@@ -2222,77 +2173,81 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="E66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>3</v>
@@ -2301,180 +2256,141 @@
         <v>3</v>
       </c>
       <c r="D69" s="6"/>
-      <c r="E69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="10" t="s">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="12" t="s">
+      <c r="B71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="B72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="7"/>
+      <c r="H72" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H74" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
-      <sortCondition ref="A1:A74"/>
+  <autoFilter ref="A1:H72">
+    <sortState ref="A2:H72">
+      <sortCondition ref="A1:A72"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A58:A61 A64:A1048576 A1:A56">
+  <conditionalFormatting sqref="A57:A60 A1:A55 A63:A1048576">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
+  <conditionalFormatting sqref="A56">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H10" r:id="rId3" location="product-desktop-release" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H15" r:id="rId5" location="java11-windows" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H39" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H45" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H72" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H53" r:id="rId13" location="/download" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H73" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H54" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H70" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H37" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H56" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H23" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H18" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H22" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H38" r:id="rId31" xr:uid="{6469D6A3-1749-4940-92F3-FF822E959687}"/>
-    <hyperlink ref="H2" r:id="rId32" xr:uid="{A782AB9A-CE44-48A7-924B-9D2B0577940B}"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3" location="product-desktop-release"/>
+    <hyperlink ref="H12" r:id="rId4"/>
+    <hyperlink ref="H15" r:id="rId5" location="java11-windows"/>
+    <hyperlink ref="H26" r:id="rId6"/>
+    <hyperlink ref="H39" r:id="rId7"/>
+    <hyperlink ref="H36" r:id="rId8"/>
+    <hyperlink ref="H40" r:id="rId9"/>
+    <hyperlink ref="H43" r:id="rId10"/>
+    <hyperlink ref="H45" r:id="rId11"/>
+    <hyperlink ref="H70" r:id="rId12"/>
+    <hyperlink ref="H52" r:id="rId13" location="/download"/>
+    <hyperlink ref="H71" r:id="rId14"/>
+    <hyperlink ref="H53" r:id="rId15"/>
+    <hyperlink ref="H68" r:id="rId16"/>
+    <hyperlink ref="H29" r:id="rId17"/>
+    <hyperlink ref="H13" r:id="rId18"/>
+    <hyperlink ref="H37" r:id="rId19"/>
+    <hyperlink ref="H33" r:id="rId20"/>
+    <hyperlink ref="H65" r:id="rId21"/>
+    <hyperlink ref="H21" r:id="rId22"/>
+    <hyperlink ref="H61" r:id="rId23"/>
+    <hyperlink ref="H55" r:id="rId24"/>
+    <hyperlink ref="H23" r:id="rId25"/>
+    <hyperlink ref="H17" r:id="rId26"/>
+    <hyperlink ref="H18" r:id="rId27"/>
+    <hyperlink ref="H20" r:id="rId28"/>
+    <hyperlink ref="H22" r:id="rId29"/>
+    <hyperlink ref="H38" r:id="rId30"/>
+    <hyperlink ref="H2" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2482,12 +2398,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="117">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://desktop.telegram.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幕享投屏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,10 +373,6 @@
   </si>
   <si>
     <t>下载工具 Internet Download Manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feem（局域网内文件传输工具）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -988,9 +980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1009,7 +1003,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>42</v>
@@ -1033,7 +1027,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -1046,7 +1040,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1100,7 +1094,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1160,161 +1154,161 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="10"/>
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="17" t="s">
-        <v>47</v>
+      <c r="A12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="17" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="17" t="s">
-        <v>110</v>
-      </c>
+      <c r="A15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
@@ -1322,72 +1316,70 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="11" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1398,100 +1390,100 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="11" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="11" t="s">
-        <v>111</v>
+      <c r="A22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>3</v>
@@ -1500,199 +1492,199 @@
         <v>3</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="E27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="7"/>
+      <c r="A30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="A32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="A33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="A34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="12" t="s">
-        <v>51</v>
+      <c r="A36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="10" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D38" s="6" t="s">
         <v>3</v>
       </c>
@@ -1700,14 +1692,16 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="10" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C39" s="6" t="s">
         <v>3</v>
       </c>
@@ -1718,12 +1712,12 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>3</v>
@@ -1731,105 +1725,105 @@
       <c r="C40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="H42" s="16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="16" t="s">
-        <v>53</v>
-      </c>
+      <c r="A43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -1848,28 +1842,22 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="7"/>
+      <c r="A47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>3</v>
@@ -1877,121 +1865,127 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G49" s="6"/>
-      <c r="H49" s="10"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" s="3"/>
+      <c r="A51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="13" t="s">
-        <v>56</v>
+      <c r="A52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="A53" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>3</v>
@@ -1999,19 +1993,17 @@
       <c r="C55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>3</v>
@@ -2025,11 +2017,11 @@
         <v>3</v>
       </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>3</v>
@@ -2047,7 +2039,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -2083,7 +2075,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>3</v>
@@ -2091,17 +2083,19 @@
       <c r="C60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>3</v>
@@ -2109,19 +2103,17 @@
       <c r="C61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D61" s="6"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G61" s="6"/>
-      <c r="H61" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>3</v>
@@ -2135,11 +2127,11 @@
         <v>3</v>
       </c>
       <c r="G62" s="6"/>
-      <c r="H62" s="10"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>3</v>
@@ -2157,230 +2149,211 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
+      <c r="H64" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C65" s="6"/>
-      <c r="D65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="10"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="A67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="A68" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="10" t="s">
-        <v>55</v>
+      <c r="A70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="A71" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="7" t="s">
+      <c r="B71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="7"/>
+      <c r="H71" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H72">
-    <sortState ref="A2:H72">
-      <sortCondition ref="A1:A72"/>
+  <autoFilter ref="A1:H71">
+    <sortState ref="A2:H71">
+      <sortCondition ref="A1:A71"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A57:A60 A1:A55 A63:A1048576">
+  <conditionalFormatting sqref="A56:A59 A62:A1048576 A1:A54">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+  <conditionalFormatting sqref="A55">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
     <hyperlink ref="H8" r:id="rId2"/>
-    <hyperlink ref="H10" r:id="rId3" location="product-desktop-release"/>
-    <hyperlink ref="H12" r:id="rId4"/>
-    <hyperlink ref="H15" r:id="rId5" location="java11-windows"/>
-    <hyperlink ref="H26" r:id="rId6"/>
-    <hyperlink ref="H39" r:id="rId7"/>
-    <hyperlink ref="H36" r:id="rId8"/>
-    <hyperlink ref="H40" r:id="rId9"/>
-    <hyperlink ref="H43" r:id="rId10"/>
-    <hyperlink ref="H45" r:id="rId11"/>
-    <hyperlink ref="H70" r:id="rId12"/>
-    <hyperlink ref="H52" r:id="rId13" location="/download"/>
-    <hyperlink ref="H71" r:id="rId14"/>
-    <hyperlink ref="H53" r:id="rId15"/>
-    <hyperlink ref="H68" r:id="rId16"/>
-    <hyperlink ref="H29" r:id="rId17"/>
-    <hyperlink ref="H13" r:id="rId18"/>
-    <hyperlink ref="H37" r:id="rId19"/>
-    <hyperlink ref="H33" r:id="rId20"/>
-    <hyperlink ref="H65" r:id="rId21"/>
-    <hyperlink ref="H21" r:id="rId22"/>
-    <hyperlink ref="H61" r:id="rId23"/>
-    <hyperlink ref="H55" r:id="rId24"/>
-    <hyperlink ref="H23" r:id="rId25"/>
+    <hyperlink ref="H9" r:id="rId3" location="product-desktop-release"/>
+    <hyperlink ref="H11" r:id="rId4"/>
+    <hyperlink ref="H14" r:id="rId5" location="java11-windows"/>
+    <hyperlink ref="H25" r:id="rId6"/>
+    <hyperlink ref="H38" r:id="rId7"/>
+    <hyperlink ref="H35" r:id="rId8"/>
+    <hyperlink ref="H39" r:id="rId9"/>
+    <hyperlink ref="H42" r:id="rId10"/>
+    <hyperlink ref="H44" r:id="rId11"/>
+    <hyperlink ref="H69" r:id="rId12"/>
+    <hyperlink ref="H51" r:id="rId13" location="/download"/>
+    <hyperlink ref="H70" r:id="rId14"/>
+    <hyperlink ref="H52" r:id="rId15"/>
+    <hyperlink ref="H67" r:id="rId16"/>
+    <hyperlink ref="H28" r:id="rId17"/>
+    <hyperlink ref="H12" r:id="rId18"/>
+    <hyperlink ref="H36" r:id="rId19"/>
+    <hyperlink ref="H32" r:id="rId20"/>
+    <hyperlink ref="H64" r:id="rId21"/>
+    <hyperlink ref="H60" r:id="rId22"/>
+    <hyperlink ref="H54" r:id="rId23"/>
+    <hyperlink ref="H22" r:id="rId24"/>
+    <hyperlink ref="H16" r:id="rId25"/>
     <hyperlink ref="H17" r:id="rId26"/>
-    <hyperlink ref="H18" r:id="rId27"/>
-    <hyperlink ref="H20" r:id="rId28"/>
-    <hyperlink ref="H22" r:id="rId29"/>
-    <hyperlink ref="H38" r:id="rId30"/>
-    <hyperlink ref="H2" r:id="rId31"/>
+    <hyperlink ref="H19" r:id="rId27"/>
+    <hyperlink ref="H21" r:id="rId28"/>
+    <hyperlink ref="H37" r:id="rId29"/>
+    <hyperlink ref="H2" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -12,14 +12,27 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$74</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="122">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件/机器/安装包情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>民生银行密码控件IE版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://pan.baidu.com/download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台式机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,14 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Java Jdk 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.oracle.com/java/technologies/downloads/#java11-windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.mefcl.com/?s=%E8%85%BE%E8%AE%AF+TIM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,11 +475,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://dotnet.microsoft.com/zh-cn/download/dotnet/6.0/runtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET 6.0 Runtime (For ClashN)</t>
+    <t>游戏平台 Steam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/about/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Jdk 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/downloads/#jdk19-windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩软件 7-Zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sparanoid.com/lab/7z/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安装盘制作工具 Rufus</t>
+  </si>
+  <si>
+    <t>https://www.centbrowser.cn/history.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯子工具 Clash for Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Fndroid/clash_for_windows_pkg/releases</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -613,12 +645,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -638,12 +679,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -980,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,13 +1050,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1018,40 +1068,40 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1062,44 +1112,44 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -1116,26 +1166,28 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -1149,148 +1201,146 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="16" t="s">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="17" t="s">
-        <v>47</v>
+      <c r="A11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="17" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="A14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
@@ -1298,174 +1348,174 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="11" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="11" t="s">
-        <v>104</v>
-      </c>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="10" t="s">
-        <v>98</v>
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="16"/>
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>3</v>
@@ -1474,199 +1524,199 @@
         <v>3</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="E26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="A28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="7"/>
+      <c r="A29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="A32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="A34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="12" t="s">
-        <v>51</v>
+      <c r="A35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="10" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D37" s="6" t="s">
         <v>3</v>
       </c>
@@ -1674,14 +1724,16 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="10" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C38" s="6" t="s">
         <v>3</v>
       </c>
@@ -1692,12 +1744,12 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>3</v>
@@ -1705,105 +1757,105 @@
       <c r="C39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="16" t="s">
+      <c r="A42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="13"/>
-    </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="A44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>3</v>
@@ -1817,33 +1869,27 @@
         <v>3</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="7"/>
+      <c r="A46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>3</v>
@@ -1851,13 +1897,17 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>3</v>
@@ -1873,7 +1923,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>3</v>
@@ -1903,7 +1953,7 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -1912,7 +1962,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
@@ -1922,7 +1972,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -1942,12 +1992,12 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>3</v>
@@ -1965,7 +2015,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>3</v>
@@ -1980,12 +2030,12 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>3</v>
@@ -2003,7 +2053,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>3</v>
@@ -2017,11 +2067,11 @@
         <v>3</v>
       </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="10"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>3</v>
@@ -2039,7 +2089,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -2057,7 +2107,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>3</v>
@@ -2075,7 +2125,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>3</v>
@@ -2083,19 +2133,17 @@
       <c r="C60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G60" s="6"/>
-      <c r="H60" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>3</v>
@@ -2103,17 +2151,19 @@
       <c r="C61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="10"/>
+      <c r="H61" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>3</v>
@@ -2127,11 +2177,11 @@
         <v>3</v>
       </c>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>3</v>
@@ -2149,79 +2199,79 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="C64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="6"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G64" s="6"/>
-      <c r="H64" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="10"/>
+      <c r="H65" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="13" t="s">
-        <v>94</v>
+      <c r="A67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>3</v>
@@ -2230,130 +2280,188 @@
         <v>3</v>
       </c>
       <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="E68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="7"/>
+      <c r="B74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H71">
-    <sortState ref="A2:H71">
-      <sortCondition ref="A1:A71"/>
+  <autoFilter ref="A1:H74">
+    <sortState ref="A2:H74">
+      <sortCondition ref="A1:A74"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A56:A59 A62:A1048576 A1:A54">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
+  <conditionalFormatting sqref="A55:A58 A61:A1048576 A1:A53">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A55)))</formula>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="浏览器">
+      <formula>NOT(ISERROR(SEARCH("浏览器",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1"/>
-    <hyperlink ref="H8" r:id="rId2"/>
-    <hyperlink ref="H9" r:id="rId3" location="product-desktop-release"/>
-    <hyperlink ref="H11" r:id="rId4"/>
-    <hyperlink ref="H14" r:id="rId5" location="java11-windows"/>
-    <hyperlink ref="H25" r:id="rId6"/>
-    <hyperlink ref="H38" r:id="rId7"/>
-    <hyperlink ref="H35" r:id="rId8"/>
-    <hyperlink ref="H39" r:id="rId9"/>
-    <hyperlink ref="H42" r:id="rId10"/>
-    <hyperlink ref="H44" r:id="rId11"/>
-    <hyperlink ref="H69" r:id="rId12"/>
-    <hyperlink ref="H51" r:id="rId13" location="/download"/>
-    <hyperlink ref="H70" r:id="rId14"/>
-    <hyperlink ref="H52" r:id="rId15"/>
-    <hyperlink ref="H67" r:id="rId16"/>
-    <hyperlink ref="H28" r:id="rId17"/>
-    <hyperlink ref="H12" r:id="rId18"/>
-    <hyperlink ref="H36" r:id="rId19"/>
-    <hyperlink ref="H32" r:id="rId20"/>
-    <hyperlink ref="H64" r:id="rId21"/>
-    <hyperlink ref="H60" r:id="rId22"/>
-    <hyperlink ref="H54" r:id="rId23"/>
-    <hyperlink ref="H22" r:id="rId24"/>
-    <hyperlink ref="H16" r:id="rId25"/>
-    <hyperlink ref="H17" r:id="rId26"/>
-    <hyperlink ref="H19" r:id="rId27"/>
-    <hyperlink ref="H21" r:id="rId28"/>
-    <hyperlink ref="H37" r:id="rId29"/>
-    <hyperlink ref="H2" r:id="rId30"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3" location="product-desktop-release"/>
+    <hyperlink ref="H10" r:id="rId4"/>
+    <hyperlink ref="H24" r:id="rId5"/>
+    <hyperlink ref="H37" r:id="rId6"/>
+    <hyperlink ref="H34" r:id="rId7"/>
+    <hyperlink ref="H38" r:id="rId8"/>
+    <hyperlink ref="H41" r:id="rId9"/>
+    <hyperlink ref="H43" r:id="rId10"/>
+    <hyperlink ref="H71" r:id="rId11"/>
+    <hyperlink ref="H51" r:id="rId12" location="/download"/>
+    <hyperlink ref="H73" r:id="rId13"/>
+    <hyperlink ref="H52" r:id="rId14"/>
+    <hyperlink ref="H69" r:id="rId15"/>
+    <hyperlink ref="H27" r:id="rId16"/>
+    <hyperlink ref="H11" r:id="rId17"/>
+    <hyperlink ref="H35" r:id="rId18"/>
+    <hyperlink ref="H31" r:id="rId19"/>
+    <hyperlink ref="H65" r:id="rId20"/>
+    <hyperlink ref="H61" r:id="rId21"/>
+    <hyperlink ref="H54" r:id="rId22"/>
+    <hyperlink ref="H15" r:id="rId23"/>
+    <hyperlink ref="H16" r:id="rId24"/>
+    <hyperlink ref="H18" r:id="rId25"/>
+    <hyperlink ref="H20" r:id="rId26"/>
+    <hyperlink ref="H36" r:id="rId27"/>
+    <hyperlink ref="H72" r:id="rId28"/>
+    <hyperlink ref="H13" r:id="rId29" location="jdk19-windows"/>
+    <hyperlink ref="H67" r:id="rId30"/>
+    <hyperlink ref="H22" r:id="rId31"/>
+    <hyperlink ref="H47" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$74</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="127">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Adobe Reader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影音播放器 PotPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LanDrop（局域网内文件传输工具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载工具 eMule Scar Angel(天使螺)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,6 +506,22 @@
   </si>
   <si>
     <t>Java Jdk 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalSend（局域网内文件传输工具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adobe Acrobat Reader DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://get.adobe.com/cn/reader/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/localsend/localsend/releases</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +745,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -779,7 +787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,7 +822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1041,13 +1049,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1059,22 +1067,22 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1086,7 +1094,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -1104,7 +1112,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -1117,12 +1125,12 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -1131,16 +1139,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -1173,7 +1181,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1193,12 +1201,12 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -1216,7 +1224,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -1231,30 +1239,30 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -1268,13 +1276,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -1287,12 +1295,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3</v>
@@ -1304,11 +1312,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -1321,12 +1331,12 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -1339,12 +1349,12 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -1359,12 +1369,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -1377,12 +1387,12 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
@@ -1400,7 +1410,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -1413,7 +1423,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1434,7 +1444,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1447,12 +1457,12 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>3</v>
@@ -1470,7 +1480,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
@@ -1483,12 +1493,12 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>3</v>
@@ -1506,7 +1516,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>3</v>
@@ -1519,12 +1529,12 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>3</v>
@@ -1542,7 +1552,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
@@ -1555,12 +1565,12 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>3</v>
@@ -1574,13 +1584,13 @@
         <v>3</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
@@ -1596,7 +1606,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>3</v>
@@ -1612,7 +1622,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
@@ -1625,12 +1635,12 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>3</v>
@@ -1646,7 +1656,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>3</v>
@@ -1657,14 +1667,14 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>3</v>
@@ -1679,30 +1689,30 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>3</v>
@@ -1715,12 +1725,12 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
@@ -1733,12 +1743,12 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>3</v>
@@ -1753,12 +1763,12 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>3</v>
@@ -1776,7 +1786,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
@@ -1792,7 +1802,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
@@ -1805,20 +1815,20 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -1826,7 +1836,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
@@ -1839,12 +1849,12 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>3</v>
@@ -1858,13 +1868,13 @@
         <v>3</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>3</v>
@@ -1878,13 +1888,13 @@
         <v>3</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>3</v>
@@ -1898,7 +1908,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>3</v>
@@ -1911,12 +1921,12 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>3</v>
@@ -1932,7 +1942,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>3</v>
@@ -1950,7 +1960,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
@@ -1962,13 +1972,13 @@
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>3</v>
@@ -1984,10 +1994,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
@@ -1997,12 +2007,12 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>3</v>
@@ -2017,12 +2027,12 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>3</v>
@@ -2040,7 +2050,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>3</v>
@@ -2055,12 +2065,12 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>3</v>
@@ -2078,7 +2088,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -2096,7 +2106,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>3</v>
@@ -2114,7 +2124,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>3</v>
@@ -2132,7 +2142,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>3</v>
@@ -2150,7 +2160,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>3</v>
@@ -2168,7 +2178,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>3</v>
@@ -2183,12 +2193,12 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>3</v>
@@ -2206,7 +2216,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>3</v>
@@ -2224,7 +2234,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>3</v>
@@ -2242,7 +2252,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>3</v>
@@ -2255,15 +2265,15 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -2276,7 +2286,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>3</v>
@@ -2291,12 +2301,12 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>3</v>
@@ -2314,7 +2324,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>3</v>
@@ -2329,12 +2339,12 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>3</v>
@@ -2352,7 +2362,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
@@ -2365,12 +2375,12 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>3</v>
@@ -2383,12 +2393,12 @@
       <c r="F74" s="6"/>
       <c r="G74" s="20"/>
       <c r="H74" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>3</v>
@@ -2401,12 +2411,12 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>3</v>
@@ -2420,7 +2430,7 @@
         <v>3</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -2485,9 +2495,11 @@
     <hyperlink ref="H26" r:id="rId31"/>
     <hyperlink ref="H20" r:id="rId32"/>
     <hyperlink ref="H13" r:id="rId33" location="jdk20-windows"/>
+    <hyperlink ref="H5" r:id="rId34"/>
+    <hyperlink ref="H14" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="127">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1134,9 +1134,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>

--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$76</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/c0re100/qBittorrent-Enhanced-Edition/releases/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://potplayer.daum.net/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,13 +519,36 @@
   <si>
     <t>火绒安全软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘空间分析工具 WinDirStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘空间分析工具 WizTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://portableapps.com/apps/utilities/windirstat_portable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://diskanalyzer.com/download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://diskanalyzer.com/download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/c0re100/qBittorrent-Enhanced-Edition/releases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +602,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -683,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -706,6 +740,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1048,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1066,10 +1102,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>39</v>
@@ -1129,7 +1165,7 @@
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1140,7 +1176,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1279,7 +1315,7 @@
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1292,12 +1328,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -1310,12 +1346,12 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
@@ -1328,12 +1364,12 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
@@ -1346,7 +1382,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1371,7 +1407,7 @@
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>3</v>
@@ -1384,7 +1420,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -1407,7 +1443,7 @@
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
@@ -1420,7 +1456,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -1454,7 +1490,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -1494,8 +1530,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>19</v>
+      <c r="A24" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -1509,29 +1545,33 @@
         <v>3</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="23" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>115</v>
+      <c r="A25" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="5" t="s">
-        <v>114</v>
+      <c r="H25" s="23" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -1540,239 +1580,237 @@
         <v>3</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14" t="s">
+      <c r="A27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="B30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="A32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16" t="s">
+      <c r="B36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18" t="s">
+      <c r="B37" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
         <v>3</v>
       </c>
@@ -1780,170 +1818,176 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7" t="s">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="16" t="s">
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16" t="s">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="5" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="15" t="s">
+      <c r="B47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="15" t="s">
+      <c r="B48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>3</v>
@@ -1951,56 +1995,54 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="5"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="6"/>
+      <c r="A51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
@@ -2010,84 +2052,80 @@
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="19" t="s">
+      <c r="B55" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="11" t="s">
+      <c r="B56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="11" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>3</v>
@@ -2101,11 +2139,11 @@
         <v>3</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>3</v>
@@ -2113,17 +2151,19 @@
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="H58" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>3</v>
@@ -2137,11 +2177,11 @@
         <v>3</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="5"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>3</v>
@@ -2155,11 +2195,11 @@
         <v>3</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="5"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>3</v>
@@ -2177,7 +2217,7 @@
     </row>
     <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>3</v>
@@ -2195,7 +2235,7 @@
     </row>
     <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>3</v>
@@ -2203,19 +2243,17 @@
       <c r="C63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>3</v>
@@ -2233,7 +2271,7 @@
     </row>
     <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>3</v>
@@ -2241,17 +2279,21 @@
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>3</v>
@@ -2265,52 +2307,52 @@
         <v>3</v>
       </c>
       <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G68" s="4"/>
-      <c r="H68" s="5"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
         <v>3</v>
       </c>
@@ -2318,50 +2360,50 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="23" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="19" t="s">
-        <v>88</v>
+      <c r="A71" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>3</v>
@@ -2370,91 +2412,129 @@
         <v>3</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="5" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+    <row r="76" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+    </row>
+    <row r="77" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="18" t="s">
+      <c r="B77" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="15" t="s">
+      <c r="B78" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H76" s="15"/>
+      <c r="H78" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H74">
-    <sortState ref="A2:H76">
-      <sortCondition ref="A1:A74"/>
+  <autoFilter ref="A1:H76">
+    <sortState ref="A2:H78">
+      <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2483,40 +2563,42 @@
     <hyperlink ref="H7" r:id="rId2" location="product-desktop-release"/>
     <hyperlink ref="H9" r:id="rId3"/>
     <hyperlink ref="H23" r:id="rId4"/>
-    <hyperlink ref="H38" r:id="rId5"/>
-    <hyperlink ref="H35" r:id="rId6"/>
-    <hyperlink ref="H39" r:id="rId7"/>
-    <hyperlink ref="H42" r:id="rId8"/>
-    <hyperlink ref="H44" r:id="rId9"/>
-    <hyperlink ref="H73" r:id="rId10"/>
-    <hyperlink ref="H53" r:id="rId11" location="/download"/>
-    <hyperlink ref="H75" r:id="rId12"/>
-    <hyperlink ref="H54" r:id="rId13"/>
-    <hyperlink ref="H71" r:id="rId14"/>
-    <hyperlink ref="H27" r:id="rId15"/>
+    <hyperlink ref="H40" r:id="rId5"/>
+    <hyperlink ref="H37" r:id="rId6"/>
+    <hyperlink ref="H41" r:id="rId7"/>
+    <hyperlink ref="H44" r:id="rId8"/>
+    <hyperlink ref="H46" r:id="rId9"/>
+    <hyperlink ref="H75" r:id="rId10"/>
+    <hyperlink ref="H55" r:id="rId11" location="/download"/>
+    <hyperlink ref="H77" r:id="rId12"/>
+    <hyperlink ref="H56" r:id="rId13"/>
+    <hyperlink ref="H73" r:id="rId14"/>
+    <hyperlink ref="H29" r:id="rId15"/>
     <hyperlink ref="H10" r:id="rId16"/>
-    <hyperlink ref="H36" r:id="rId17"/>
-    <hyperlink ref="H31" r:id="rId18"/>
-    <hyperlink ref="H67" r:id="rId19"/>
-    <hyperlink ref="H63" r:id="rId20"/>
-    <hyperlink ref="H56" r:id="rId21"/>
-    <hyperlink ref="H14" r:id="rId22"/>
-    <hyperlink ref="H15" r:id="rId23"/>
-    <hyperlink ref="H37" r:id="rId24"/>
-    <hyperlink ref="H74" r:id="rId25"/>
-    <hyperlink ref="H69" r:id="rId26"/>
-    <hyperlink ref="H21" r:id="rId27"/>
-    <hyperlink ref="H48" r:id="rId28"/>
-    <hyperlink ref="H25" r:id="rId29"/>
-    <hyperlink ref="H19" r:id="rId30"/>
-    <hyperlink ref="H12" r:id="rId31" location="jdk20-windows"/>
-    <hyperlink ref="H4" r:id="rId32"/>
-    <hyperlink ref="H13" r:id="rId33"/>
-    <hyperlink ref="H33" r:id="rId34"/>
-    <hyperlink ref="H17" r:id="rId35"/>
+    <hyperlink ref="H38" r:id="rId17"/>
+    <hyperlink ref="H33" r:id="rId18"/>
+    <hyperlink ref="H69" r:id="rId19"/>
+    <hyperlink ref="H58" r:id="rId20"/>
+    <hyperlink ref="H14" r:id="rId21"/>
+    <hyperlink ref="H15" r:id="rId22"/>
+    <hyperlink ref="H39" r:id="rId23"/>
+    <hyperlink ref="H76" r:id="rId24"/>
+    <hyperlink ref="H71" r:id="rId25"/>
+    <hyperlink ref="H21" r:id="rId26"/>
+    <hyperlink ref="H50" r:id="rId27"/>
+    <hyperlink ref="H27" r:id="rId28"/>
+    <hyperlink ref="H19" r:id="rId29"/>
+    <hyperlink ref="H12" r:id="rId30" location="jdk20-windows"/>
+    <hyperlink ref="H4" r:id="rId31"/>
+    <hyperlink ref="H13" r:id="rId32"/>
+    <hyperlink ref="H35" r:id="rId33"/>
+    <hyperlink ref="H17" r:id="rId34"/>
+    <hyperlink ref="H24" r:id="rId35"/>
+    <hyperlink ref="H70" r:id="rId36"/>
+    <hyperlink ref="H25" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$72</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="126">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百度云管家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影音播放器 PotPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载工具 闪电下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载工具 Free Download Manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,22 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mega网盘 32位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega网盘 64位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mega.nz/MEGAsyncSetup32.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mega.nz/MEGAsyncSetup64.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视频剪辑工具 蜜蜂剪辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,14 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.oracle.com/java/technologies/downloads/#jdk20-windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java Jdk 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LocalSend（局域网内文件传输工具）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +510,14 @@
   </si>
   <si>
     <t>https://github.com/c0re100/qBittorrent-Enhanced-Edition/releases</t>
+  </si>
+  <si>
+    <t>Java Jdk 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/downloads/#jdk21-windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1084,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1102,13 +1078,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1120,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1147,7 +1123,7 @@
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1165,7 +1141,7 @@
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1176,12 +1152,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1214,7 +1190,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1234,12 +1210,12 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -1257,7 +1233,7 @@
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -1272,30 +1248,30 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -1309,13 +1285,13 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1328,12 +1304,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -1346,73 +1322,73 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5" t="s">
-        <v>95</v>
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="A16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="D17" s="10" t="s">
         <v>3</v>
       </c>
@@ -1420,82 +1396,86 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="12" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="12" t="s">
-        <v>109</v>
+      <c r="A21" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>10</v>
+      <c r="A22" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -1504,54 +1484,54 @@
         <v>3</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="23" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>126</v>
+      <c r="A24" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="23" t="s">
-        <v>128</v>
+      <c r="H24" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>127</v>
+      <c r="A25" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -1560,466 +1540,462 @@
         <v>3</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="23" t="s">
-        <v>130</v>
-      </c>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="A26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="A27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="15"/>
+      <c r="A30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="A31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="A32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="A33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="5" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18" t="s">
-        <v>48</v>
+      <c r="A37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D38" s="4" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5" t="s">
+      <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="A42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A44" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="19"/>
+      <c r="A45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="15"/>
+      <c r="A47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="15"/>
+      <c r="A48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="A50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>3</v>
@@ -2031,101 +2007,105 @@
         <v>3</v>
       </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="A52" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="6"/>
+      <c r="A53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="19" t="s">
-        <v>53</v>
+      <c r="A55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="A56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>3</v>
@@ -2139,11 +2119,11 @@
         <v>3</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="5"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>3</v>
@@ -2151,19 +2131,17 @@
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>3</v>
@@ -2177,11 +2155,11 @@
         <v>3</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>3</v>
@@ -2195,11 +2173,11 @@
         <v>3</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>3</v>
@@ -2217,7 +2195,7 @@
     </row>
     <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>3</v>
@@ -2225,17 +2203,21 @@
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="5"/>
+      <c r="H62" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>3</v>
@@ -2249,11 +2231,11 @@
         <v>3</v>
       </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="5"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>3</v>
@@ -2267,51 +2249,47 @@
         <v>3</v>
       </c>
       <c r="G64" s="4"/>
-      <c r="H64" s="5"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="5" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="5"/>
+      <c r="H66" s="23" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>3</v>
@@ -2319,17 +2297,19 @@
       <c r="C67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>3</v>
@@ -2338,56 +2318,56 @@
         <v>3</v>
       </c>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="5" t="s">
-        <v>69</v>
+      <c r="A69" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="23" t="s">
-        <v>129</v>
-      </c>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B71" s="4"/>
       <c r="C71" s="4" t="s">
         <v>3</v>
       </c>
@@ -2398,207 +2378,131 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>8</v>
+      <c r="A72" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="21" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="19" t="s">
-        <v>87</v>
+      <c r="A73" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H78" s="15"/>
+      <c r="A74" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H76">
-    <sortState ref="A2:H78">
-      <sortCondition ref="A1:A76"/>
+  <autoFilter ref="A1:H72">
+    <sortState ref="A2:H74">
+      <sortCondition ref="A1:A72"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A55:A58 A61:A1048576 A1:A53">
+  <conditionalFormatting sqref="A52:A55 A1:A50 A58:A1048576">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
+  <conditionalFormatting sqref="A56">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
+  <conditionalFormatting sqref="A57">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A60)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
+  <conditionalFormatting sqref="A51">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1"/>
     <hyperlink ref="H7" r:id="rId2" location="product-desktop-release"/>
     <hyperlink ref="H9" r:id="rId3"/>
-    <hyperlink ref="H23" r:id="rId4"/>
-    <hyperlink ref="H40" r:id="rId5"/>
-    <hyperlink ref="H37" r:id="rId6"/>
-    <hyperlink ref="H41" r:id="rId7"/>
-    <hyperlink ref="H44" r:id="rId8"/>
-    <hyperlink ref="H46" r:id="rId9"/>
-    <hyperlink ref="H75" r:id="rId10"/>
-    <hyperlink ref="H55" r:id="rId11" location="/download"/>
-    <hyperlink ref="H77" r:id="rId12"/>
-    <hyperlink ref="H56" r:id="rId13"/>
-    <hyperlink ref="H73" r:id="rId14"/>
-    <hyperlink ref="H29" r:id="rId15"/>
+    <hyperlink ref="H20" r:id="rId4"/>
+    <hyperlink ref="H37" r:id="rId5"/>
+    <hyperlink ref="H34" r:id="rId6"/>
+    <hyperlink ref="H38" r:id="rId7"/>
+    <hyperlink ref="H41" r:id="rId8"/>
+    <hyperlink ref="H43" r:id="rId9"/>
+    <hyperlink ref="H71" r:id="rId10"/>
+    <hyperlink ref="H52" r:id="rId11" location="/download"/>
+    <hyperlink ref="H73" r:id="rId12"/>
+    <hyperlink ref="H53" r:id="rId13"/>
+    <hyperlink ref="H69" r:id="rId14"/>
+    <hyperlink ref="H26" r:id="rId15"/>
     <hyperlink ref="H10" r:id="rId16"/>
-    <hyperlink ref="H38" r:id="rId17"/>
-    <hyperlink ref="H33" r:id="rId18"/>
-    <hyperlink ref="H69" r:id="rId19"/>
-    <hyperlink ref="H58" r:id="rId20"/>
-    <hyperlink ref="H14" r:id="rId21"/>
-    <hyperlink ref="H15" r:id="rId22"/>
-    <hyperlink ref="H39" r:id="rId23"/>
-    <hyperlink ref="H76" r:id="rId24"/>
-    <hyperlink ref="H71" r:id="rId25"/>
-    <hyperlink ref="H21" r:id="rId26"/>
-    <hyperlink ref="H50" r:id="rId27"/>
-    <hyperlink ref="H27" r:id="rId28"/>
-    <hyperlink ref="H19" r:id="rId29"/>
-    <hyperlink ref="H12" r:id="rId30" location="jdk20-windows"/>
-    <hyperlink ref="H4" r:id="rId31"/>
-    <hyperlink ref="H13" r:id="rId32"/>
-    <hyperlink ref="H35" r:id="rId33"/>
-    <hyperlink ref="H17" r:id="rId34"/>
-    <hyperlink ref="H24" r:id="rId35"/>
-    <hyperlink ref="H70" r:id="rId36"/>
-    <hyperlink ref="H25" r:id="rId37"/>
+    <hyperlink ref="H35" r:id="rId17"/>
+    <hyperlink ref="H30" r:id="rId18"/>
+    <hyperlink ref="H65" r:id="rId19"/>
+    <hyperlink ref="H55" r:id="rId20"/>
+    <hyperlink ref="H36" r:id="rId21"/>
+    <hyperlink ref="H72" r:id="rId22"/>
+    <hyperlink ref="H67" r:id="rId23"/>
+    <hyperlink ref="H18" r:id="rId24"/>
+    <hyperlink ref="H47" r:id="rId25"/>
+    <hyperlink ref="H24" r:id="rId26"/>
+    <hyperlink ref="H17" r:id="rId27"/>
+    <hyperlink ref="H12" r:id="rId28" location="jdk21-windows"/>
+    <hyperlink ref="H4" r:id="rId29"/>
+    <hyperlink ref="H13" r:id="rId30"/>
+    <hyperlink ref="H32" r:id="rId31"/>
+    <hyperlink ref="H15" r:id="rId32"/>
+    <hyperlink ref="H21" r:id="rId33"/>
+    <hyperlink ref="H66" r:id="rId34"/>
+    <hyperlink ref="H22" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$68</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="119">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,39 +272,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>梯子工具 v2rayN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山软件管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://input.kfsafe.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机 VMware Workstation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vmware.com/go/getworkstation-win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为工作需要的软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录屏截图软件 Bandicam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梯子工具 v2rayN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金山软件管家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://input.kfsafe.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机 VMware Workstation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.vmware.com/go/getworkstation-win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为工作需要的软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adobe Flash Player去除Helper特别版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录屏截图软件 Bandicam</t>
+    <t>Telegram Desktop 桌面PC版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手心输入法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡饭输入法（备选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载工具 Geek Uninstaller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷X（优化版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 Free Download Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 Internet Download Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 eMule Scar Angel(天使螺)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 eMule(电骡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载工具 qBittorrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://potplayer.daum.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本比较工具 Beyond Compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本编辑工具 Notepad++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://notepad-plus-plus.org/downloads/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台式机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频剪辑工具 蜜蜂剪辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,82 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Telegram Desktop 桌面PC版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幕享投屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://letsview.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手心输入法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡饭输入法（备选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载工具 Geek Uninstaller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅雷X（优化版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载工具 Free Download Manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载工具 Internet Download Manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载工具 eMule Scar Angel(天使螺)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载工具 eMule(电骡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载工具 qBittorrent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://potplayer.daum.net/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本比较工具 Beyond Compare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本编辑工具 Notepad++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://notepad-plus-plus.org/downloads/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台式机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频剪辑工具 蜜蜂剪辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QQ 去广告优化版</t>
   </si>
   <si>
@@ -402,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梯子工具 ClashN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏平台 Steam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,14 +410,6 @@
   </si>
   <si>
     <t>https://www.centbrowser.cn/history.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梯子工具 Clash for Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Fndroid/clash_for_windows_pkg/releases</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1060,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1078,10 +1050,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>38</v>
@@ -1096,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>39</v>
@@ -1141,7 +1113,7 @@
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1152,30 +1124,32 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -1190,272 +1164,270 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="8" t="s">
-        <v>43</v>
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="8" t="s">
-        <v>125</v>
+      <c r="A12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5" t="s">
-        <v>113</v>
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="8" t="s">
-        <v>44</v>
+      <c r="A14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
-        <v>116</v>
-      </c>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>3</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>109</v>
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="4"/>
+      <c r="A20" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="5" t="s">
-        <v>45</v>
+      <c r="H20" s="23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -1470,12 +1442,12 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>119</v>
+      <c r="A22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -1489,252 +1461,252 @@
         <v>3</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="23" t="s">
-        <v>122</v>
-      </c>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="A32" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="A33" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18" t="s">
-        <v>47</v>
+      <c r="A34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="5" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
@@ -1742,190 +1714,188 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="5" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="A40" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7" t="s">
-        <v>49</v>
+      <c r="A41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16" t="s">
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="15" t="s">
+      <c r="A44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>3</v>
@@ -1937,119 +1907,123 @@
         <v>3</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
+      <c r="A48" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="A49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="6"/>
+      <c r="A50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="H51" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="A52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="A53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>3</v>
@@ -2067,7 +2041,7 @@
     </row>
     <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>3</v>
@@ -2075,19 +2049,17 @@
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>3</v>
@@ -2101,11 +2073,11 @@
         <v>3</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>3</v>
@@ -2119,11 +2091,11 @@
         <v>3</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>3</v>
@@ -2131,17 +2103,21 @@
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>3</v>
@@ -2155,11 +2131,11 @@
         <v>3</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="5"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>3</v>
@@ -2173,51 +2149,47 @@
         <v>3</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="5"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="5" t="s">
-        <v>123</v>
+      <c r="H62" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>3</v>
@@ -2225,17 +2197,19 @@
       <c r="C63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="H63" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>3</v>
@@ -2244,56 +2218,56 @@
         <v>3</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="5" t="s">
-        <v>68</v>
+      <c r="A65" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G66" s="4"/>
-      <c r="H66" s="23" t="s">
-        <v>121</v>
-      </c>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
         <v>3</v>
       </c>
@@ -2304,205 +2278,129 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>7</v>
+      <c r="A68" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="21" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="19" t="s">
-        <v>85</v>
+      <c r="A69" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A70" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="15" t="s">
+      <c r="B70" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H74" s="15"/>
+      <c r="H70" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H72">
-    <sortState ref="A2:H74">
-      <sortCondition ref="A1:A72"/>
+  <autoFilter ref="A1:H68">
+    <sortState ref="A2:H70">
+      <sortCondition ref="A1:A68"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A52:A55 A1:A50 A58:A1048576">
+  <conditionalFormatting sqref="A48:A51 A54:A1048576 A1:A46">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="浏览器">
       <formula>NOT(ISERROR(SEARCH("浏览器",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+  <conditionalFormatting sqref="A52">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
+  <conditionalFormatting sqref="A53">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A47">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="浏览器">
-      <formula>NOT(ISERROR(SEARCH("浏览器",A51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("浏览器",A47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2" location="product-desktop-release"/>
-    <hyperlink ref="H9" r:id="rId3"/>
-    <hyperlink ref="H20" r:id="rId4"/>
-    <hyperlink ref="H37" r:id="rId5"/>
-    <hyperlink ref="H34" r:id="rId6"/>
-    <hyperlink ref="H38" r:id="rId7"/>
-    <hyperlink ref="H41" r:id="rId8"/>
-    <hyperlink ref="H43" r:id="rId9"/>
-    <hyperlink ref="H71" r:id="rId10"/>
-    <hyperlink ref="H52" r:id="rId11" location="/download"/>
-    <hyperlink ref="H73" r:id="rId12"/>
-    <hyperlink ref="H53" r:id="rId13"/>
-    <hyperlink ref="H69" r:id="rId14"/>
-    <hyperlink ref="H26" r:id="rId15"/>
-    <hyperlink ref="H10" r:id="rId16"/>
-    <hyperlink ref="H35" r:id="rId17"/>
-    <hyperlink ref="H30" r:id="rId18"/>
-    <hyperlink ref="H65" r:id="rId19"/>
-    <hyperlink ref="H55" r:id="rId20"/>
-    <hyperlink ref="H36" r:id="rId21"/>
-    <hyperlink ref="H72" r:id="rId22"/>
-    <hyperlink ref="H67" r:id="rId23"/>
-    <hyperlink ref="H18" r:id="rId24"/>
-    <hyperlink ref="H47" r:id="rId25"/>
-    <hyperlink ref="H24" r:id="rId26"/>
-    <hyperlink ref="H17" r:id="rId27"/>
-    <hyperlink ref="H12" r:id="rId28" location="jdk21-windows"/>
-    <hyperlink ref="H4" r:id="rId29"/>
-    <hyperlink ref="H13" r:id="rId30"/>
-    <hyperlink ref="H32" r:id="rId31"/>
-    <hyperlink ref="H15" r:id="rId32"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2" location="product-desktop-release"/>
+    <hyperlink ref="H8" r:id="rId3"/>
+    <hyperlink ref="H19" r:id="rId4"/>
+    <hyperlink ref="H35" r:id="rId5"/>
+    <hyperlink ref="H33" r:id="rId6"/>
+    <hyperlink ref="H36" r:id="rId7"/>
+    <hyperlink ref="H39" r:id="rId8"/>
+    <hyperlink ref="H41" r:id="rId9"/>
+    <hyperlink ref="H67" r:id="rId10"/>
+    <hyperlink ref="H48" r:id="rId11" location="/download"/>
+    <hyperlink ref="H69" r:id="rId12"/>
+    <hyperlink ref="H49" r:id="rId13"/>
+    <hyperlink ref="H65" r:id="rId14"/>
+    <hyperlink ref="H25" r:id="rId15"/>
+    <hyperlink ref="H9" r:id="rId16"/>
+    <hyperlink ref="H29" r:id="rId17"/>
+    <hyperlink ref="H61" r:id="rId18"/>
+    <hyperlink ref="H51" r:id="rId19"/>
+    <hyperlink ref="H34" r:id="rId20"/>
+    <hyperlink ref="H68" r:id="rId21"/>
+    <hyperlink ref="H63" r:id="rId22"/>
+    <hyperlink ref="H17" r:id="rId23"/>
+    <hyperlink ref="H23" r:id="rId24"/>
+    <hyperlink ref="H16" r:id="rId25"/>
+    <hyperlink ref="H11" r:id="rId26" location="jdk21-windows"/>
+    <hyperlink ref="H4" r:id="rId27"/>
+    <hyperlink ref="H12" r:id="rId28"/>
+    <hyperlink ref="H31" r:id="rId29"/>
+    <hyperlink ref="H14" r:id="rId30"/>
+    <hyperlink ref="H20" r:id="rId31"/>
+    <hyperlink ref="H62" r:id="rId32"/>
     <hyperlink ref="H21" r:id="rId33"/>
-    <hyperlink ref="H66" r:id="rId34"/>
-    <hyperlink ref="H22" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 

--- a/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
+++ b/文档/其他文档/Others/PC/台式机和笔记本软件列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20490" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$69</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="121">
   <si>
     <t>是否绿色版</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +489,14 @@
   </si>
   <si>
     <t>https://www.oracle.com/java/technologies/downloads/#jdk21-windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.textseek.net/cn/download.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档内容搜索工具 TextSeek</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1987,7 +1995,7 @@
     </row>
     <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>3</v>
@@ -1995,17 +2003,21 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>3</v>
@@ -2023,7 +2035,7 @@
     </row>
     <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>3</v>
@@ -2037,11 +2049,11 @@
         <v>3</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="5"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>3</v>
@@ -2059,7 +2071,7 @@
     </row>
     <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>3</v>
@@ -2077,7 +2089,7 @@
     </row>
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>3</v>
@@ -2095,7 +2107,7 @@
     </row>
     <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>3</v>
@@ -2103,21 +2115,17 @@
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>3</v>
@@ -2125,17 +2133,21 @@
       <c r="C59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>3</v>
@@ -2153,63 +2165,61 @@
     </row>
     <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G61" s="4"/>
-      <c r="H61" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="23" t="s">
-        <v>114</v>
+      <c r="H62" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="5" t="s">
-        <v>95</v>
+      <c r="H63" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>3</v>
@@ -2217,130 +2227,150 @@
       <c r="C64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="H64" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="19" t="s">
+      <c r="B66" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="20" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="21" t="s">
+      <c r="G68" s="4"/>
+      <c r="H68" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+    <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="18" t="s">
+      <c r="B70" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="15" t="s">
+      <c r="B71" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H70" s="15"/>
+      <c r="H71" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H68">
-    <sortState ref="A2:H70">
-      <sortCondition ref="A1:A68"/>
+  <autoFilter ref="A1:H69">
+    <sortState ref="A2:H71">
+      <sortCondition ref="A1:A69"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2374,19 +2404,19 @@
     <hyperlink ref="H36" r:id="rId7"/>
     <hyperlink ref="H39" r:id="rId8"/>
     <hyperlink ref="H41" r:id="rId9"/>
-    <hyperlink ref="H67" r:id="rId10"/>
+    <hyperlink ref="H68" r:id="rId10"/>
     <hyperlink ref="H48" r:id="rId11" location="/download"/>
-    <hyperlink ref="H69" r:id="rId12"/>
+    <hyperlink ref="H70" r:id="rId12"/>
     <hyperlink ref="H49" r:id="rId13"/>
-    <hyperlink ref="H65" r:id="rId14"/>
+    <hyperlink ref="H66" r:id="rId14"/>
     <hyperlink ref="H25" r:id="rId15"/>
     <hyperlink ref="H9" r:id="rId16"/>
     <hyperlink ref="H29" r:id="rId17"/>
-    <hyperlink ref="H61" r:id="rId18"/>
+    <hyperlink ref="H62" r:id="rId18"/>
     <hyperlink ref="H51" r:id="rId19"/>
     <hyperlink ref="H34" r:id="rId20"/>
-    <hyperlink ref="H68" r:id="rId21"/>
-    <hyperlink ref="H63" r:id="rId22"/>
+    <hyperlink ref="H69" r:id="rId21"/>
+    <hyperlink ref="H64" r:id="rId22"/>
     <hyperlink ref="H17" r:id="rId23"/>
     <hyperlink ref="H23" r:id="rId24"/>
     <hyperlink ref="H16" r:id="rId25"/>
@@ -2396,11 +2426,12 @@
     <hyperlink ref="H31" r:id="rId29"/>
     <hyperlink ref="H14" r:id="rId30"/>
     <hyperlink ref="H20" r:id="rId31"/>
-    <hyperlink ref="H62" r:id="rId32"/>
+    <hyperlink ref="H63" r:id="rId32"/>
     <hyperlink ref="H21" r:id="rId33"/>
+    <hyperlink ref="H52" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
